--- a/야구K6_ItemTablev1.0.11.xlsx
+++ b/야구K6_ItemTablev1.0.11.xlsx
@@ -1584,7 +1584,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C406" authorId="0" shapeId="0">
+    <comment ref="C408" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1738,7 +1738,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A414" authorId="1" shapeId="0">
+    <comment ref="A416" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1759,7 +1759,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4555" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4582" uniqueCount="828">
   <si>
     <t>//</t>
   </si>
@@ -4481,6 +4481,18 @@
   </si>
   <si>
     <t>기타아이템(47)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랜덤다이아(48)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랜덤 다이아 박스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000에서 1000만 다이아에 코치의 조언`감독의 조언`응원의 소리 1장씩 지급됩니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6658,12 +6670,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC484"/>
+  <dimension ref="A1:AC486"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="16" topLeftCell="A377" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="16" topLeftCell="A383" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="A404" sqref="A404:XFD404"/>
+      <selection pane="bottomLeft" activeCell="F385" sqref="F385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
@@ -35481,16 +35493,16 @@
         <v>365</v>
       </c>
       <c r="T394" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="U394" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="U394" s="10" t="s">
+      <c r="V394" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="W394" s="10" t="s">
         <v>367</v>
-      </c>
-      <c r="V394" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="W394" s="10" t="s">
-        <v>363</v>
       </c>
       <c r="X394" s="10" t="s">
         <v>364</v>
@@ -35557,20 +35569,22 @@
         <v>7</v>
       </c>
       <c r="T395" s="46">
+        <v>4601</v>
+      </c>
+      <c r="U395" s="46">
         <v>3</v>
       </c>
-      <c r="U395" s="46">
+      <c r="V395" s="46">
+        <v>4602</v>
+      </c>
+      <c r="W395" s="46">
         <v>90</v>
-      </c>
-      <c r="V395" s="46">
-        <v>4601</v>
-      </c>
-      <c r="W395" s="46">
-        <v>4602</v>
       </c>
       <c r="X395" s="46">
         <v>-1</v>
       </c>
+      <c r="Y395" s="46"/>
+      <c r="Z395" s="46"/>
     </row>
     <row r="396" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A396" s="10" t="s">
@@ -36115,58 +36129,58 @@
     </row>
     <row r="405" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A405" s="10" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="B405" s="10" t="s">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="C405" s="10" t="s">
-        <v>161</v>
+        <v>109</v>
       </c>
       <c r="D405" s="10" t="s">
-        <v>162</v>
+        <v>67</v>
       </c>
       <c r="E405" s="10" t="s">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="F405" s="10" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="G405" s="10" t="s">
-        <v>165</v>
+        <v>110</v>
       </c>
       <c r="H405" s="10" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="I405" s="10" t="s">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="J405" s="10" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="K405" s="10" t="s">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="L405" s="10" t="s">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="M405" s="10" t="s">
-        <v>744</v>
+        <v>243</v>
       </c>
       <c r="N405" s="10" t="s">
-        <v>171</v>
+        <v>99</v>
       </c>
       <c r="O405" s="10" t="s">
-        <v>172</v>
+        <v>116</v>
       </c>
       <c r="P405" s="10" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="Q405" s="10" t="s">
-        <v>174</v>
+        <v>119</v>
       </c>
       <c r="R405" s="10" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="S405" s="10"/>
       <c r="T405" s="10"/>
@@ -36179,192 +36193,179 @@
       <c r="AA405" s="10"/>
       <c r="AB405" s="10"/>
     </row>
-    <row r="406" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A406" s="56"/>
-      <c r="B406" s="19">
-        <v>5000</v>
-      </c>
-      <c r="C406" s="19" t="s">
-        <v>193</v>
+    <row r="406" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B406" s="48">
+        <v>4800</v>
+      </c>
+      <c r="C406" s="48" t="s">
+        <v>202</v>
       </c>
       <c r="D406" s="48" t="s">
-        <v>193</v>
-      </c>
-      <c r="E406" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="F406" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="G406" s="19">
-        <v>0</v>
-      </c>
-      <c r="H406" s="19">
-        <v>0</v>
-      </c>
-      <c r="I406" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="J406" s="19">
-        <v>0</v>
-      </c>
-      <c r="K406" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="L406" s="19">
-        <v>0</v>
-      </c>
-      <c r="M406" s="50" t="s">
-        <v>246</v>
-      </c>
-      <c r="N406" s="19">
+        <v>825</v>
+      </c>
+      <c r="E406" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="F406" s="48" t="s">
+        <v>826</v>
+      </c>
+      <c r="G406" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="H406" s="48">
+        <v>0</v>
+      </c>
+      <c r="I406" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="J406" s="48">
+        <v>0</v>
+      </c>
+      <c r="K406" s="46" t="s">
+        <v>339</v>
+      </c>
+      <c r="L406" s="48">
+        <v>0</v>
+      </c>
+      <c r="M406" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="N406" s="46">
         <v>0</v>
       </c>
       <c r="O406" s="7">
-        <v>1</v>
-      </c>
-      <c r="P406" s="19">
-        <f>O406</f>
-        <v>1</v>
-      </c>
-      <c r="Q406" s="19">
-        <v>1</v>
-      </c>
-      <c r="R406" s="19" t="str">
-        <f t="shared" ref="R406:R412" si="65">F406</f>
-        <v>다이아</v>
-      </c>
-      <c r="S406" s="48"/>
-      <c r="T406" s="48"/>
-      <c r="U406" s="48"/>
-      <c r="V406" s="48"/>
-      <c r="W406" s="48"/>
-      <c r="X406" s="48"/>
-      <c r="Y406" s="19"/>
-      <c r="Z406" s="19"/>
-      <c r="AA406" s="19"/>
-      <c r="AB406" s="19"/>
-    </row>
-    <row r="407" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A407" s="56"/>
-      <c r="B407" s="48">
-        <v>5001</v>
-      </c>
-      <c r="C407" s="48" t="s">
-        <v>193</v>
-      </c>
-      <c r="D407" s="48" t="s">
-        <v>193</v>
-      </c>
-      <c r="E407" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="F407" s="48" t="s">
-        <v>199</v>
-      </c>
-      <c r="G407" s="48">
-        <v>1</v>
-      </c>
-      <c r="H407" s="48">
-        <v>0</v>
-      </c>
-      <c r="I407" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="J407" s="48">
-        <v>0</v>
-      </c>
-      <c r="K407" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="L407" s="48">
-        <v>0</v>
-      </c>
-      <c r="M407" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="N407" s="48">
-        <v>0</v>
-      </c>
-      <c r="O407" s="7">
-        <v>100</v>
-      </c>
-      <c r="P407" s="48">
-        <f t="shared" ref="P407:P412" si="66">O407</f>
-        <v>100</v>
-      </c>
-      <c r="Q407" s="48">
-        <v>1</v>
-      </c>
-      <c r="R407" s="48" t="str">
-        <f t="shared" si="65"/>
-        <v>다이아 소량</v>
-      </c>
-      <c r="S407" s="48"/>
-      <c r="T407" s="48"/>
-      <c r="U407" s="48"/>
-      <c r="V407" s="48"/>
-      <c r="W407" s="48"/>
-      <c r="X407" s="48"/>
-      <c r="Y407" s="19"/>
-      <c r="Z407" s="19"/>
-      <c r="AA407" s="19"/>
-      <c r="AB407" s="19"/>
+        <v>10000</v>
+      </c>
+      <c r="P406" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q406" s="46">
+        <v>1</v>
+      </c>
+      <c r="R406" s="48" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="407" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A407" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B407" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C407" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D407" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E407" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F407" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="G407" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="H407" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="I407" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="J407" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="K407" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="L407" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="M407" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="N407" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="O407" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="P407" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q407" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="R407" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="S407" s="10"/>
+      <c r="T407" s="10"/>
+      <c r="U407" s="10"/>
+      <c r="V407" s="10"/>
+      <c r="W407" s="10"/>
+      <c r="X407" s="10"/>
+      <c r="Y407" s="10"/>
+      <c r="Z407" s="10"/>
+      <c r="AA407" s="10"/>
+      <c r="AB407" s="10"/>
     </row>
     <row r="408" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A408" s="56"/>
-      <c r="B408" s="48">
-        <v>5002</v>
-      </c>
-      <c r="C408" s="48" t="s">
+      <c r="B408" s="19">
+        <v>5000</v>
+      </c>
+      <c r="C408" s="19" t="s">
         <v>193</v>
       </c>
       <c r="D408" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="E408" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="F408" s="48" t="s">
-        <v>194</v>
-      </c>
-      <c r="G408" s="48">
-        <v>1</v>
-      </c>
-      <c r="H408" s="48">
-        <v>0</v>
-      </c>
-      <c r="I408" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="J408" s="48">
+      <c r="E408" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="F408" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="G408" s="19">
+        <v>0</v>
+      </c>
+      <c r="H408" s="19">
+        <v>0</v>
+      </c>
+      <c r="I408" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="J408" s="19">
         <v>0</v>
       </c>
       <c r="K408" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="L408" s="48">
-        <v>0</v>
-      </c>
-      <c r="M408" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="N408" s="48">
+        <v>201</v>
+      </c>
+      <c r="L408" s="19">
+        <v>0</v>
+      </c>
+      <c r="M408" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="N408" s="19">
         <v>0</v>
       </c>
       <c r="O408" s="7">
-        <v>1000</v>
-      </c>
-      <c r="P408" s="48">
-        <f t="shared" si="66"/>
-        <v>1000</v>
-      </c>
-      <c r="Q408" s="48">
-        <v>1</v>
-      </c>
-      <c r="R408" s="48" t="str">
-        <f t="shared" si="65"/>
-        <v>다이아 뭉치</v>
+        <v>1</v>
+      </c>
+      <c r="P408" s="19">
+        <f>O408</f>
+        <v>1</v>
+      </c>
+      <c r="Q408" s="19">
+        <v>1</v>
+      </c>
+      <c r="R408" s="19" t="str">
+        <f t="shared" ref="R408:R414" si="65">F408</f>
+        <v>다이아</v>
       </c>
       <c r="S408" s="48"/>
       <c r="T408" s="48"/>
@@ -36380,7 +36381,7 @@
     <row r="409" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A409" s="56"/>
       <c r="B409" s="48">
-        <v>5003</v>
+        <v>5001</v>
       </c>
       <c r="C409" s="48" t="s">
         <v>193</v>
@@ -36392,7 +36393,7 @@
         <v>157</v>
       </c>
       <c r="F409" s="48" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G409" s="48">
         <v>1</v>
@@ -36407,7 +36408,7 @@
         <v>0</v>
       </c>
       <c r="K409" s="4" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="L409" s="48">
         <v>0</v>
@@ -36419,18 +36420,18 @@
         <v>0</v>
       </c>
       <c r="O409" s="7">
-        <v>2500</v>
+        <v>100</v>
       </c>
       <c r="P409" s="48">
-        <f t="shared" si="66"/>
-        <v>2500</v>
+        <f t="shared" ref="P409:P414" si="66">O409</f>
+        <v>100</v>
       </c>
       <c r="Q409" s="48">
         <v>1</v>
       </c>
       <c r="R409" s="48" t="str">
         <f t="shared" si="65"/>
-        <v>다이아 주머니</v>
+        <v>다이아 소량</v>
       </c>
       <c r="S409" s="48"/>
       <c r="T409" s="48"/>
@@ -36446,7 +36447,7 @@
     <row r="410" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A410" s="56"/>
       <c r="B410" s="48">
-        <v>5004</v>
+        <v>5002</v>
       </c>
       <c r="C410" s="48" t="s">
         <v>193</v>
@@ -36458,7 +36459,7 @@
         <v>157</v>
       </c>
       <c r="F410" s="48" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G410" s="48">
         <v>1</v>
@@ -36473,7 +36474,7 @@
         <v>0</v>
       </c>
       <c r="K410" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L410" s="48">
         <v>0</v>
@@ -36485,18 +36486,18 @@
         <v>0</v>
       </c>
       <c r="O410" s="7">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="P410" s="48">
         <f t="shared" si="66"/>
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="Q410" s="48">
         <v>1</v>
       </c>
       <c r="R410" s="48" t="str">
         <f t="shared" si="65"/>
-        <v>작은 다이아 상자</v>
+        <v>다이아 뭉치</v>
       </c>
       <c r="S410" s="48"/>
       <c r="T410" s="48"/>
@@ -36512,7 +36513,7 @@
     <row r="411" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A411" s="56"/>
       <c r="B411" s="48">
-        <v>5005</v>
+        <v>5003</v>
       </c>
       <c r="C411" s="48" t="s">
         <v>193</v>
@@ -36524,7 +36525,7 @@
         <v>157</v>
       </c>
       <c r="F411" s="48" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G411" s="48">
         <v>1</v>
@@ -36539,7 +36540,7 @@
         <v>0</v>
       </c>
       <c r="K411" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L411" s="48">
         <v>0</v>
@@ -36551,18 +36552,18 @@
         <v>0</v>
       </c>
       <c r="O411" s="7">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="P411" s="48">
         <f t="shared" si="66"/>
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="Q411" s="48">
         <v>1</v>
       </c>
       <c r="R411" s="48" t="str">
         <f t="shared" si="65"/>
-        <v>큰 다이아 상자</v>
+        <v>다이아 주머니</v>
       </c>
       <c r="S411" s="48"/>
       <c r="T411" s="48"/>
@@ -36575,10 +36576,10 @@
       <c r="AA411" s="19"/>
       <c r="AB411" s="19"/>
     </row>
-    <row r="412" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A412" s="56"/>
       <c r="B412" s="48">
-        <v>5006</v>
+        <v>5004</v>
       </c>
       <c r="C412" s="48" t="s">
         <v>193</v>
@@ -36590,7 +36591,7 @@
         <v>157</v>
       </c>
       <c r="F412" s="48" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G412" s="48">
         <v>1</v>
@@ -36605,7 +36606,7 @@
         <v>0</v>
       </c>
       <c r="K412" s="4" t="s">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="L412" s="48">
         <v>0</v>
@@ -36617,260 +36618,264 @@
         <v>0</v>
       </c>
       <c r="O412" s="7">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="P412" s="48">
         <f t="shared" si="66"/>
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="Q412" s="48">
         <v>1</v>
       </c>
       <c r="R412" s="48" t="str">
         <f t="shared" si="65"/>
-        <v>대형 다이아 상자</v>
+        <v>작은 다이아 상자</v>
       </c>
       <c r="S412" s="48"/>
       <c r="T412" s="48"/>
-      <c r="U412" s="46"/>
-      <c r="V412" s="46"/>
-      <c r="W412" s="46"/>
-      <c r="X412" s="46"/>
-      <c r="Y412" s="22"/>
-      <c r="Z412" s="22"/>
-      <c r="AA412" s="22"/>
-      <c r="AB412" s="22"/>
-    </row>
-    <row r="413" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A413" s="14" t="s">
+      <c r="U412" s="48"/>
+      <c r="V412" s="48"/>
+      <c r="W412" s="48"/>
+      <c r="X412" s="48"/>
+      <c r="Y412" s="19"/>
+      <c r="Z412" s="19"/>
+      <c r="AA412" s="19"/>
+      <c r="AB412" s="19"/>
+    </row>
+    <row r="413" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A413" s="56"/>
+      <c r="B413" s="48">
+        <v>5005</v>
+      </c>
+      <c r="C413" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="D413" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="E413" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="F413" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="G413" s="48">
+        <v>1</v>
+      </c>
+      <c r="H413" s="48">
+        <v>0</v>
+      </c>
+      <c r="I413" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="J413" s="48">
+        <v>0</v>
+      </c>
+      <c r="K413" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="L413" s="48">
+        <v>0</v>
+      </c>
+      <c r="M413" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="N413" s="48">
+        <v>0</v>
+      </c>
+      <c r="O413" s="7">
+        <v>10000</v>
+      </c>
+      <c r="P413" s="48">
+        <f t="shared" si="66"/>
+        <v>10000</v>
+      </c>
+      <c r="Q413" s="48">
+        <v>1</v>
+      </c>
+      <c r="R413" s="48" t="str">
+        <f t="shared" si="65"/>
+        <v>큰 다이아 상자</v>
+      </c>
+      <c r="S413" s="48"/>
+      <c r="T413" s="48"/>
+      <c r="U413" s="48"/>
+      <c r="V413" s="48"/>
+      <c r="W413" s="48"/>
+      <c r="X413" s="48"/>
+      <c r="Y413" s="19"/>
+      <c r="Z413" s="19"/>
+      <c r="AA413" s="19"/>
+      <c r="AB413" s="19"/>
+    </row>
+    <row r="414" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A414" s="56"/>
+      <c r="B414" s="48">
+        <v>5006</v>
+      </c>
+      <c r="C414" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="D414" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="E414" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="F414" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="G414" s="48">
+        <v>1</v>
+      </c>
+      <c r="H414" s="48">
+        <v>0</v>
+      </c>
+      <c r="I414" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="J414" s="48">
+        <v>0</v>
+      </c>
+      <c r="K414" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="L414" s="48">
+        <v>0</v>
+      </c>
+      <c r="M414" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="N414" s="48">
+        <v>0</v>
+      </c>
+      <c r="O414" s="7">
+        <v>20000</v>
+      </c>
+      <c r="P414" s="48">
+        <f t="shared" si="66"/>
+        <v>20000</v>
+      </c>
+      <c r="Q414" s="48">
+        <v>1</v>
+      </c>
+      <c r="R414" s="48" t="str">
+        <f t="shared" si="65"/>
+        <v>대형 다이아 상자</v>
+      </c>
+      <c r="S414" s="48"/>
+      <c r="T414" s="48"/>
+      <c r="U414" s="46"/>
+      <c r="V414" s="46"/>
+      <c r="W414" s="46"/>
+      <c r="X414" s="46"/>
+      <c r="Y414" s="22"/>
+      <c r="Z414" s="22"/>
+      <c r="AA414" s="22"/>
+      <c r="AB414" s="22"/>
+    </row>
+    <row r="415" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A415" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B413" s="14"/>
-      <c r="C413" s="14"/>
-      <c r="D413" s="14"/>
-      <c r="E413" s="14"/>
-      <c r="F413" s="14"/>
-      <c r="G413" s="14"/>
-      <c r="H413" s="14"/>
-      <c r="I413" s="14"/>
-      <c r="J413" s="14"/>
-      <c r="K413" s="14"/>
-      <c r="L413" s="14"/>
-      <c r="M413" s="14"/>
-      <c r="N413" s="14"/>
-      <c r="O413" s="14"/>
-      <c r="P413" s="14"/>
-      <c r="Q413" s="14"/>
-      <c r="R413" s="14"/>
-      <c r="S413" s="14"/>
-      <c r="T413" s="14"/>
-      <c r="U413" s="14"/>
-      <c r="V413" s="14"/>
-      <c r="W413" s="14"/>
-      <c r="X413" s="14"/>
-      <c r="Y413" s="14"/>
-      <c r="Z413" s="14"/>
-      <c r="AA413" s="14"/>
-      <c r="AB413" s="14"/>
-    </row>
-    <row r="414" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A414" s="10" t="s">
+      <c r="B415" s="14"/>
+      <c r="C415" s="14"/>
+      <c r="D415" s="14"/>
+      <c r="E415" s="14"/>
+      <c r="F415" s="14"/>
+      <c r="G415" s="14"/>
+      <c r="H415" s="14"/>
+      <c r="I415" s="14"/>
+      <c r="J415" s="14"/>
+      <c r="K415" s="14"/>
+      <c r="L415" s="14"/>
+      <c r="M415" s="14"/>
+      <c r="N415" s="14"/>
+      <c r="O415" s="14"/>
+      <c r="P415" s="14"/>
+      <c r="Q415" s="14"/>
+      <c r="R415" s="14"/>
+      <c r="S415" s="14"/>
+      <c r="T415" s="14"/>
+      <c r="U415" s="14"/>
+      <c r="V415" s="14"/>
+      <c r="W415" s="14"/>
+      <c r="X415" s="14"/>
+      <c r="Y415" s="14"/>
+      <c r="Z415" s="14"/>
+      <c r="AA415" s="14"/>
+      <c r="AB415" s="14"/>
+    </row>
+    <row r="416" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A416" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B414" s="10" t="s">
+      <c r="B416" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C414" s="10" t="s">
+      <c r="C416" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D414" s="10" t="s">
+      <c r="D416" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="E414" s="10" t="s">
+      <c r="E416" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="F414" s="10" t="s">
+      <c r="F416" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="G414" s="10" t="s">
+      <c r="G416" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H414" s="10" t="s">
+      <c r="H416" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="I414" s="10" t="s">
+      <c r="I416" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="J414" s="10" t="s">
+      <c r="J416" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="K414" s="10" t="s">
+      <c r="K416" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="L414" s="10" t="s">
+      <c r="L416" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="M414" s="10" t="s">
+      <c r="M416" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="N414" s="10" t="s">
+      <c r="N416" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="O414" s="10" t="s">
+      <c r="O416" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="P414" s="10" t="s">
+      <c r="P416" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="Q414" s="10" t="s">
+      <c r="Q416" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="R414" s="10" t="s">
+      <c r="R416" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="S414" s="10"/>
-      <c r="T414" s="10"/>
-      <c r="U414" s="10"/>
-      <c r="V414" s="10"/>
-      <c r="W414" s="10"/>
-      <c r="X414" s="10"/>
-      <c r="Y414" s="10"/>
-      <c r="Z414" s="10"/>
-      <c r="AA414" s="10"/>
-      <c r="AB414" s="10"/>
-    </row>
-    <row r="415" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A415" s="19"/>
-      <c r="B415" s="19">
-        <v>50000</v>
-      </c>
-      <c r="C415" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="D415" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="E415" s="48" t="s">
-        <v>721</v>
-      </c>
-      <c r="F415" s="15" t="s">
-        <v>371</v>
-      </c>
-      <c r="G415" s="19">
-        <v>0</v>
-      </c>
-      <c r="H415" s="19">
-        <v>0</v>
-      </c>
-      <c r="I415" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="J415" s="19">
-        <v>0</v>
-      </c>
-      <c r="K415" s="19">
-        <v>16</v>
-      </c>
-      <c r="L415" s="19">
-        <v>0</v>
-      </c>
-      <c r="M415" s="19">
-        <v>0</v>
-      </c>
-      <c r="N415" s="19">
-        <v>0</v>
-      </c>
-      <c r="O415" s="21">
-        <v>8</v>
-      </c>
-      <c r="P415" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q415" s="19">
-        <v>1</v>
-      </c>
-      <c r="R415" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="S415" s="19"/>
-      <c r="T415" s="19"/>
-      <c r="U415" s="19"/>
-      <c r="V415" s="19"/>
-      <c r="W415" s="19"/>
-      <c r="X415" s="19"/>
-      <c r="Y415" s="19"/>
-      <c r="Z415" s="19"/>
-      <c r="AA415" s="19"/>
-      <c r="AB415" s="19"/>
-    </row>
-    <row r="416" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A416" s="19"/>
-      <c r="B416" s="19">
-        <v>50001</v>
-      </c>
-      <c r="C416" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="D416" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="E416" s="48" t="s">
-        <v>721</v>
-      </c>
-      <c r="F416" s="15" t="s">
-        <v>373</v>
-      </c>
-      <c r="G416" s="19">
-        <v>0</v>
-      </c>
-      <c r="H416" s="19">
-        <v>0</v>
-      </c>
-      <c r="I416" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="J416" s="19">
-        <v>0</v>
-      </c>
-      <c r="K416" s="19">
-        <v>16</v>
-      </c>
-      <c r="L416" s="19">
-        <v>0</v>
-      </c>
-      <c r="M416" s="19">
-        <v>0</v>
-      </c>
-      <c r="N416" s="19">
-        <v>0</v>
-      </c>
-      <c r="O416" s="21">
-        <v>10</v>
-      </c>
-      <c r="P416" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q416" s="19">
-        <v>1</v>
-      </c>
-      <c r="R416" s="19" t="s">
-        <v>372</v>
-      </c>
-      <c r="S416" s="19"/>
-      <c r="T416" s="19"/>
-      <c r="U416" s="19"/>
-      <c r="V416" s="19"/>
-      <c r="W416" s="19"/>
-      <c r="X416" s="19"/>
-      <c r="Y416" s="19"/>
-      <c r="Z416" s="19"/>
-      <c r="AA416" s="19"/>
-      <c r="AB416" s="19"/>
+      <c r="S416" s="10"/>
+      <c r="T416" s="10"/>
+      <c r="U416" s="10"/>
+      <c r="V416" s="10"/>
+      <c r="W416" s="10"/>
+      <c r="X416" s="10"/>
+      <c r="Y416" s="10"/>
+      <c r="Z416" s="10"/>
+      <c r="AA416" s="10"/>
+      <c r="AB416" s="10"/>
     </row>
     <row r="417" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A417" s="19"/>
       <c r="B417" s="19">
-        <v>50002</v>
+        <v>50000</v>
       </c>
       <c r="C417" s="19" t="s">
         <v>181</v>
@@ -36882,7 +36887,7 @@
         <v>721</v>
       </c>
       <c r="F417" s="15" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G417" s="19">
         <v>0</v>
@@ -36908,8 +36913,8 @@
       <c r="N417" s="19">
         <v>0</v>
       </c>
-      <c r="O417" s="19">
-        <v>0</v>
+      <c r="O417" s="21">
+        <v>8</v>
       </c>
       <c r="P417" s="19">
         <v>1</v>
@@ -36918,7 +36923,7 @@
         <v>1</v>
       </c>
       <c r="R417" s="19" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="S417" s="19"/>
       <c r="T417" s="19"/>
@@ -36934,7 +36939,7 @@
     <row r="418" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A418" s="19"/>
       <c r="B418" s="19">
-        <v>50003</v>
+        <v>50001</v>
       </c>
       <c r="C418" s="19" t="s">
         <v>181</v>
@@ -36945,8 +36950,8 @@
       <c r="E418" s="48" t="s">
         <v>721</v>
       </c>
-      <c r="F418" s="4" t="s">
-        <v>377</v>
+      <c r="F418" s="15" t="s">
+        <v>373</v>
       </c>
       <c r="G418" s="19">
         <v>0</v>
@@ -36972,8 +36977,8 @@
       <c r="N418" s="19">
         <v>0</v>
       </c>
-      <c r="O418" s="19">
-        <v>0</v>
+      <c r="O418" s="21">
+        <v>10</v>
       </c>
       <c r="P418" s="19">
         <v>1</v>
@@ -36982,7 +36987,7 @@
         <v>1</v>
       </c>
       <c r="R418" s="19" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="S418" s="19"/>
       <c r="T418" s="19"/>
@@ -36995,205 +37000,209 @@
       <c r="AA418" s="19"/>
       <c r="AB418" s="19"/>
     </row>
-    <row r="419" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A419" s="10" t="s">
-        <v>640</v>
-      </c>
-      <c r="B419" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C419" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="D419" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E419" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="F419" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="G419" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="H419" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="I419" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="J419" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="K419" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="L419" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="M419" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="N419" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="O419" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="P419" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q419" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="R419" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="S419" s="10" t="s">
-        <v>664</v>
-      </c>
-      <c r="T419" s="10" t="s">
-        <v>665</v>
-      </c>
-      <c r="U419" s="10" t="s">
-        <v>666</v>
-      </c>
-      <c r="V419" s="10"/>
-      <c r="W419" s="10"/>
-      <c r="X419" s="10"/>
-      <c r="Y419" s="10"/>
-      <c r="Z419" s="10"/>
-      <c r="AA419" s="10"/>
-      <c r="AB419" s="10"/>
-    </row>
-    <row r="420" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B420" s="48">
-        <v>51000</v>
-      </c>
-      <c r="C420" s="48" t="s">
-        <v>641</v>
-      </c>
-      <c r="D420" s="48" t="s">
-        <v>641</v>
+    <row r="419" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A419" s="19"/>
+      <c r="B419" s="19">
+        <v>50002</v>
+      </c>
+      <c r="C419" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D419" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="E419" s="48" t="s">
+        <v>721</v>
+      </c>
+      <c r="F419" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="G419" s="19">
+        <v>0</v>
+      </c>
+      <c r="H419" s="19">
+        <v>0</v>
+      </c>
+      <c r="I419" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="J419" s="19">
+        <v>0</v>
+      </c>
+      <c r="K419" s="19">
+        <v>16</v>
+      </c>
+      <c r="L419" s="19">
+        <v>0</v>
+      </c>
+      <c r="M419" s="19">
+        <v>0</v>
+      </c>
+      <c r="N419" s="19">
+        <v>0</v>
+      </c>
+      <c r="O419" s="19">
+        <v>0</v>
+      </c>
+      <c r="P419" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q419" s="19">
+        <v>1</v>
+      </c>
+      <c r="R419" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="S419" s="19"/>
+      <c r="T419" s="19"/>
+      <c r="U419" s="19"/>
+      <c r="V419" s="19"/>
+      <c r="W419" s="19"/>
+      <c r="X419" s="19"/>
+      <c r="Y419" s="19"/>
+      <c r="Z419" s="19"/>
+      <c r="AA419" s="19"/>
+      <c r="AB419" s="19"/>
+    </row>
+    <row r="420" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A420" s="19"/>
+      <c r="B420" s="19">
+        <v>50003</v>
+      </c>
+      <c r="C420" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D420" s="19" t="s">
+        <v>181</v>
       </c>
       <c r="E420" s="48" t="s">
         <v>721</v>
       </c>
-      <c r="F420" s="48" t="s">
-        <v>642</v>
-      </c>
-      <c r="G420" s="28" t="s">
-        <v>263</v>
-      </c>
-      <c r="H420" s="48">
-        <v>0</v>
-      </c>
-      <c r="I420" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="J420" s="48">
-        <v>0</v>
-      </c>
-      <c r="K420" s="46" t="s">
-        <v>339</v>
-      </c>
-      <c r="L420" s="48">
-        <v>0</v>
-      </c>
-      <c r="M420" s="48">
-        <v>0</v>
-      </c>
-      <c r="N420" s="46">
-        <v>0</v>
-      </c>
-      <c r="O420" s="46">
-        <v>0</v>
-      </c>
-      <c r="P420" s="46">
-        <v>1</v>
-      </c>
-      <c r="Q420" s="46">
-        <v>1</v>
-      </c>
-      <c r="R420" s="48" t="s">
-        <v>643</v>
-      </c>
-      <c r="S420" s="48">
-        <v>10</v>
-      </c>
-      <c r="T420" s="48" t="s">
-        <v>765</v>
-      </c>
-      <c r="U420" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="421" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B421" s="48">
-        <v>51001</v>
-      </c>
-      <c r="C421" s="48" t="s">
-        <v>641</v>
-      </c>
-      <c r="D421" s="48" t="s">
-        <v>641</v>
-      </c>
-      <c r="E421" s="48" t="s">
-        <v>721</v>
-      </c>
-      <c r="F421" s="48" t="s">
-        <v>644</v>
-      </c>
-      <c r="G421" s="28" t="s">
-        <v>263</v>
-      </c>
-      <c r="H421" s="48">
-        <v>0</v>
-      </c>
-      <c r="I421" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="J421" s="48">
-        <v>0</v>
-      </c>
-      <c r="K421" s="46" t="s">
-        <v>339</v>
-      </c>
-      <c r="L421" s="48">
-        <v>0</v>
-      </c>
-      <c r="M421" s="48">
-        <v>0</v>
-      </c>
-      <c r="N421" s="46">
-        <v>0</v>
-      </c>
-      <c r="O421" s="46">
-        <v>0</v>
-      </c>
-      <c r="P421" s="46">
-        <v>1</v>
-      </c>
-      <c r="Q421" s="46">
-        <v>1</v>
-      </c>
-      <c r="R421" s="48" t="s">
-        <v>643</v>
-      </c>
-      <c r="S421" s="48">
-        <v>20</v>
-      </c>
-      <c r="T421" s="48" t="s">
-        <v>765</v>
-      </c>
-      <c r="U421" s="48">
-        <v>1</v>
-      </c>
+      <c r="F420" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="G420" s="19">
+        <v>0</v>
+      </c>
+      <c r="H420" s="19">
+        <v>0</v>
+      </c>
+      <c r="I420" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="J420" s="19">
+        <v>0</v>
+      </c>
+      <c r="K420" s="19">
+        <v>16</v>
+      </c>
+      <c r="L420" s="19">
+        <v>0</v>
+      </c>
+      <c r="M420" s="19">
+        <v>0</v>
+      </c>
+      <c r="N420" s="19">
+        <v>0</v>
+      </c>
+      <c r="O420" s="19">
+        <v>0</v>
+      </c>
+      <c r="P420" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q420" s="19">
+        <v>1</v>
+      </c>
+      <c r="R420" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="S420" s="19"/>
+      <c r="T420" s="19"/>
+      <c r="U420" s="19"/>
+      <c r="V420" s="19"/>
+      <c r="W420" s="19"/>
+      <c r="X420" s="19"/>
+      <c r="Y420" s="19"/>
+      <c r="Z420" s="19"/>
+      <c r="AA420" s="19"/>
+      <c r="AB420" s="19"/>
+    </row>
+    <row r="421" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A421" s="10" t="s">
+        <v>640</v>
+      </c>
+      <c r="B421" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C421" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D421" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E421" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F421" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="G421" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H421" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="I421" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J421" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="K421" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="L421" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="M421" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="N421" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="O421" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="P421" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q421" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="R421" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="S421" s="10" t="s">
+        <v>664</v>
+      </c>
+      <c r="T421" s="10" t="s">
+        <v>665</v>
+      </c>
+      <c r="U421" s="10" t="s">
+        <v>666</v>
+      </c>
+      <c r="V421" s="10"/>
+      <c r="W421" s="10"/>
+      <c r="X421" s="10"/>
+      <c r="Y421" s="10"/>
+      <c r="Z421" s="10"/>
+      <c r="AA421" s="10"/>
+      <c r="AB421" s="10"/>
     </row>
     <row r="422" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B422" s="48">
-        <v>51002</v>
+        <v>51000</v>
       </c>
       <c r="C422" s="48" t="s">
         <v>641</v>
@@ -37205,7 +37214,7 @@
         <v>721</v>
       </c>
       <c r="F422" s="48" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="G422" s="28" t="s">
         <v>263</v>
@@ -37244,7 +37253,7 @@
         <v>643</v>
       </c>
       <c r="S422" s="48">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T422" s="48" t="s">
         <v>765</v>
@@ -37253,9 +37262,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B423" s="48">
-        <v>51003</v>
+        <v>51001</v>
       </c>
       <c r="C423" s="48" t="s">
         <v>641</v>
@@ -37267,7 +37276,7 @@
         <v>721</v>
       </c>
       <c r="F423" s="48" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="G423" s="28" t="s">
         <v>263</v>
@@ -37305,20 +37314,19 @@
       <c r="R423" s="48" t="s">
         <v>643</v>
       </c>
-      <c r="S423" s="28">
-        <v>40</v>
-      </c>
-      <c r="T423" s="28" t="s">
+      <c r="S423" s="48">
+        <v>20</v>
+      </c>
+      <c r="T423" s="48" t="s">
         <v>765</v>
       </c>
-      <c r="U423" s="28">
-        <v>2</v>
-      </c>
-      <c r="V423" s="28"/>
-    </row>
-    <row r="424" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="U423" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:28" s="48" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B424" s="48">
-        <v>51004</v>
+        <v>51002</v>
       </c>
       <c r="C424" s="48" t="s">
         <v>641</v>
@@ -37330,7 +37338,7 @@
         <v>721</v>
       </c>
       <c r="F424" s="48" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="G424" s="28" t="s">
         <v>263</v>
@@ -37368,20 +37376,19 @@
       <c r="R424" s="48" t="s">
         <v>643</v>
       </c>
-      <c r="S424" s="28">
-        <v>50</v>
-      </c>
-      <c r="T424" s="28" t="s">
+      <c r="S424" s="48">
+        <v>30</v>
+      </c>
+      <c r="T424" s="48" t="s">
         <v>765</v>
       </c>
-      <c r="U424" s="28">
-        <v>2</v>
-      </c>
-      <c r="V424" s="28"/>
+      <c r="U424" s="48">
+        <v>1</v>
+      </c>
     </row>
     <row r="425" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B425" s="48">
-        <v>51005</v>
+        <v>51003</v>
       </c>
       <c r="C425" s="48" t="s">
         <v>641</v>
@@ -37393,7 +37400,7 @@
         <v>721</v>
       </c>
       <c r="F425" s="48" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G425" s="28" t="s">
         <v>263</v>
@@ -37431,19 +37438,20 @@
       <c r="R425" s="48" t="s">
         <v>643</v>
       </c>
-      <c r="S425" s="1">
-        <v>60</v>
-      </c>
-      <c r="T425" s="1" t="s">
+      <c r="S425" s="28">
+        <v>40</v>
+      </c>
+      <c r="T425" s="28" t="s">
         <v>765</v>
       </c>
-      <c r="U425" s="1">
+      <c r="U425" s="28">
         <v>2</v>
       </c>
+      <c r="V425" s="28"/>
     </row>
     <row r="426" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B426" s="48">
-        <v>51006</v>
+        <v>51004</v>
       </c>
       <c r="C426" s="48" t="s">
         <v>641</v>
@@ -37455,7 +37463,7 @@
         <v>721</v>
       </c>
       <c r="F426" s="48" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="G426" s="28" t="s">
         <v>263</v>
@@ -37493,19 +37501,20 @@
       <c r="R426" s="48" t="s">
         <v>643</v>
       </c>
-      <c r="S426" s="1">
-        <v>70</v>
-      </c>
-      <c r="T426" s="1" t="s">
+      <c r="S426" s="28">
+        <v>50</v>
+      </c>
+      <c r="T426" s="28" t="s">
         <v>765</v>
       </c>
-      <c r="U426" s="1">
-        <v>3</v>
-      </c>
+      <c r="U426" s="28">
+        <v>2</v>
+      </c>
+      <c r="V426" s="28"/>
     </row>
     <row r="427" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B427" s="48">
-        <v>51007</v>
+        <v>51005</v>
       </c>
       <c r="C427" s="48" t="s">
         <v>641</v>
@@ -37517,7 +37526,7 @@
         <v>721</v>
       </c>
       <c r="F427" s="48" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="G427" s="28" t="s">
         <v>263</v>
@@ -37556,18 +37565,18 @@
         <v>643</v>
       </c>
       <c r="S427" s="1">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="T427" s="1" t="s">
         <v>765</v>
       </c>
       <c r="U427" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B428" s="48">
-        <v>51008</v>
+        <v>51006</v>
       </c>
       <c r="C428" s="48" t="s">
         <v>641</v>
@@ -37579,7 +37588,7 @@
         <v>721</v>
       </c>
       <c r="F428" s="48" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="G428" s="28" t="s">
         <v>263</v>
@@ -37618,7 +37627,7 @@
         <v>643</v>
       </c>
       <c r="S428" s="1">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="T428" s="1" t="s">
         <v>765</v>
@@ -37629,7 +37638,7 @@
     </row>
     <row r="429" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B429" s="48">
-        <v>51009</v>
+        <v>51007</v>
       </c>
       <c r="C429" s="48" t="s">
         <v>641</v>
@@ -37641,7 +37650,7 @@
         <v>721</v>
       </c>
       <c r="F429" s="48" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="G429" s="28" t="s">
         <v>263</v>
@@ -37680,18 +37689,18 @@
         <v>643</v>
       </c>
       <c r="S429" s="1">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="T429" s="1" t="s">
         <v>765</v>
       </c>
       <c r="U429" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="430" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B430" s="48">
-        <v>51010</v>
+        <v>51008</v>
       </c>
       <c r="C430" s="48" t="s">
         <v>641</v>
@@ -37703,7 +37712,7 @@
         <v>721</v>
       </c>
       <c r="F430" s="48" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="G430" s="28" t="s">
         <v>263</v>
@@ -37742,18 +37751,18 @@
         <v>643</v>
       </c>
       <c r="S430" s="1">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="T430" s="1" t="s">
         <v>765</v>
       </c>
       <c r="U430" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="431" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B431" s="48">
-        <v>51011</v>
+        <v>51009</v>
       </c>
       <c r="C431" s="48" t="s">
         <v>641</v>
@@ -37765,7 +37774,7 @@
         <v>721</v>
       </c>
       <c r="F431" s="48" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G431" s="28" t="s">
         <v>263</v>
@@ -37804,7 +37813,7 @@
         <v>643</v>
       </c>
       <c r="S431" s="1">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="T431" s="1" t="s">
         <v>765</v>
@@ -37815,7 +37824,7 @@
     </row>
     <row r="432" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B432" s="48">
-        <v>51012</v>
+        <v>51010</v>
       </c>
       <c r="C432" s="48" t="s">
         <v>641</v>
@@ -37827,7 +37836,7 @@
         <v>721</v>
       </c>
       <c r="F432" s="48" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="G432" s="28" t="s">
         <v>263</v>
@@ -37866,18 +37875,18 @@
         <v>643</v>
       </c>
       <c r="S432" s="1">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="T432" s="1" t="s">
-        <v>749</v>
+        <v>765</v>
       </c>
       <c r="U432" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="433" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B433" s="48">
-        <v>51013</v>
+        <v>51011</v>
       </c>
       <c r="C433" s="48" t="s">
         <v>641</v>
@@ -37889,7 +37898,7 @@
         <v>721</v>
       </c>
       <c r="F433" s="48" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G433" s="28" t="s">
         <v>263</v>
@@ -37928,18 +37937,18 @@
         <v>643</v>
       </c>
       <c r="S433" s="1">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="T433" s="1" t="s">
-        <v>416</v>
+        <v>765</v>
       </c>
       <c r="U433" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="434" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B434" s="48">
-        <v>51014</v>
+        <v>51012</v>
       </c>
       <c r="C434" s="48" t="s">
         <v>641</v>
@@ -37951,7 +37960,7 @@
         <v>721</v>
       </c>
       <c r="F434" s="48" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="G434" s="28" t="s">
         <v>263</v>
@@ -37990,10 +37999,10 @@
         <v>643</v>
       </c>
       <c r="S434" s="1">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="T434" s="1" t="s">
-        <v>416</v>
+        <v>749</v>
       </c>
       <c r="U434" s="1">
         <v>1</v>
@@ -38001,7 +38010,7 @@
     </row>
     <row r="435" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B435" s="48">
-        <v>51015</v>
+        <v>51013</v>
       </c>
       <c r="C435" s="48" t="s">
         <v>641</v>
@@ -38013,7 +38022,7 @@
         <v>721</v>
       </c>
       <c r="F435" s="48" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G435" s="28" t="s">
         <v>263</v>
@@ -38052,7 +38061,7 @@
         <v>643</v>
       </c>
       <c r="S435" s="1">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="T435" s="1" t="s">
         <v>416</v>
@@ -38063,7 +38072,7 @@
     </row>
     <row r="436" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B436" s="48">
-        <v>51016</v>
+        <v>51014</v>
       </c>
       <c r="C436" s="48" t="s">
         <v>641</v>
@@ -38075,7 +38084,7 @@
         <v>721</v>
       </c>
       <c r="F436" s="48" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="G436" s="28" t="s">
         <v>263</v>
@@ -38114,18 +38123,18 @@
         <v>643</v>
       </c>
       <c r="S436" s="1">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="T436" s="1" t="s">
         <v>416</v>
       </c>
       <c r="U436" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B437" s="48">
-        <v>51017</v>
+        <v>51015</v>
       </c>
       <c r="C437" s="48" t="s">
         <v>641</v>
@@ -38137,7 +38146,7 @@
         <v>721</v>
       </c>
       <c r="F437" s="48" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G437" s="28" t="s">
         <v>263</v>
@@ -38176,18 +38185,18 @@
         <v>643</v>
       </c>
       <c r="S437" s="1">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="T437" s="1" t="s">
         <v>416</v>
       </c>
       <c r="U437" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B438" s="48">
-        <v>51018</v>
+        <v>51016</v>
       </c>
       <c r="C438" s="48" t="s">
         <v>641</v>
@@ -38199,7 +38208,7 @@
         <v>721</v>
       </c>
       <c r="F438" s="48" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="G438" s="28" t="s">
         <v>263</v>
@@ -38238,7 +38247,7 @@
         <v>643</v>
       </c>
       <c r="S438" s="1">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="T438" s="1" t="s">
         <v>416</v>
@@ -38249,7 +38258,7 @@
     </row>
     <row r="439" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B439" s="48">
-        <v>51019</v>
+        <v>51017</v>
       </c>
       <c r="C439" s="48" t="s">
         <v>641</v>
@@ -38261,7 +38270,7 @@
         <v>721</v>
       </c>
       <c r="F439" s="48" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="G439" s="28" t="s">
         <v>263</v>
@@ -38300,18 +38309,18 @@
         <v>643</v>
       </c>
       <c r="S439" s="1">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="T439" s="1" t="s">
         <v>416</v>
       </c>
       <c r="U439" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B440" s="48">
-        <v>51020</v>
+        <v>51018</v>
       </c>
       <c r="C440" s="48" t="s">
         <v>641</v>
@@ -38323,7 +38332,7 @@
         <v>721</v>
       </c>
       <c r="F440" s="48" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="G440" s="28" t="s">
         <v>263</v>
@@ -38362,18 +38371,18 @@
         <v>643</v>
       </c>
       <c r="S440" s="1">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="T440" s="1" t="s">
         <v>416</v>
       </c>
       <c r="U440" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B441" s="48">
-        <v>51021</v>
+        <v>51019</v>
       </c>
       <c r="C441" s="48" t="s">
         <v>641</v>
@@ -38385,7 +38394,7 @@
         <v>721</v>
       </c>
       <c r="F441" s="48" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="G441" s="28" t="s">
         <v>263</v>
@@ -38400,7 +38409,7 @@
         <v>0</v>
       </c>
       <c r="K441" s="46" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L441" s="48">
         <v>0</v>
@@ -38424,7 +38433,7 @@
         <v>643</v>
       </c>
       <c r="S441" s="1">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="T441" s="1" t="s">
         <v>416</v>
@@ -38435,7 +38444,7 @@
     </row>
     <row r="442" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B442" s="48">
-        <v>51022</v>
+        <v>51020</v>
       </c>
       <c r="C442" s="48" t="s">
         <v>641</v>
@@ -38447,7 +38456,7 @@
         <v>721</v>
       </c>
       <c r="F442" s="48" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="G442" s="28" t="s">
         <v>263</v>
@@ -38462,7 +38471,7 @@
         <v>0</v>
       </c>
       <c r="K442" s="46" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L442" s="48">
         <v>0</v>
@@ -38486,18 +38495,18 @@
         <v>643</v>
       </c>
       <c r="S442" s="1">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="T442" s="1" t="s">
         <v>416</v>
       </c>
       <c r="U442" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="443" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B443" s="48">
-        <v>51023</v>
+        <v>51021</v>
       </c>
       <c r="C443" s="48" t="s">
         <v>641</v>
@@ -38509,7 +38518,7 @@
         <v>721</v>
       </c>
       <c r="F443" s="48" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="G443" s="28" t="s">
         <v>263</v>
@@ -38548,18 +38557,18 @@
         <v>643</v>
       </c>
       <c r="S443" s="1">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="T443" s="1" t="s">
         <v>416</v>
       </c>
       <c r="U443" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="444" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B444" s="48">
-        <v>51024</v>
+        <v>51022</v>
       </c>
       <c r="C444" s="48" t="s">
         <v>641</v>
@@ -38571,7 +38580,7 @@
         <v>721</v>
       </c>
       <c r="F444" s="48" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G444" s="28" t="s">
         <v>263</v>
@@ -38610,7 +38619,7 @@
         <v>643</v>
       </c>
       <c r="S444" s="1">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="T444" s="1" t="s">
         <v>416</v>
@@ -38621,7 +38630,7 @@
     </row>
     <row r="445" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B445" s="48">
-        <v>51025</v>
+        <v>51023</v>
       </c>
       <c r="C445" s="48" t="s">
         <v>641</v>
@@ -38633,7 +38642,7 @@
         <v>721</v>
       </c>
       <c r="F445" s="48" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="G445" s="28" t="s">
         <v>263</v>
@@ -38672,18 +38681,18 @@
         <v>643</v>
       </c>
       <c r="S445" s="1">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="T445" s="1" t="s">
-        <v>667</v>
+        <v>416</v>
       </c>
       <c r="U445" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="446" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B446" s="48">
-        <v>51026</v>
+        <v>51024</v>
       </c>
       <c r="C446" s="48" t="s">
         <v>641</v>
@@ -38695,7 +38704,7 @@
         <v>721</v>
       </c>
       <c r="F446" s="48" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="G446" s="28" t="s">
         <v>263</v>
@@ -38734,18 +38743,18 @@
         <v>643</v>
       </c>
       <c r="S446" s="1">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="T446" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="U446" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="447" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B447" s="48">
-        <v>51027</v>
+        <v>51025</v>
       </c>
       <c r="C447" s="48" t="s">
         <v>641</v>
@@ -38757,7 +38766,7 @@
         <v>721</v>
       </c>
       <c r="F447" s="48" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="G447" s="28" t="s">
         <v>263</v>
@@ -38796,10 +38805,10 @@
         <v>643</v>
       </c>
       <c r="S447" s="1">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="T447" s="1" t="s">
-        <v>418</v>
+        <v>667</v>
       </c>
       <c r="U447" s="1">
         <v>1</v>
@@ -38807,7 +38816,7 @@
     </row>
     <row r="448" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B448" s="48">
-        <v>51028</v>
+        <v>51026</v>
       </c>
       <c r="C448" s="48" t="s">
         <v>641</v>
@@ -38819,7 +38828,7 @@
         <v>721</v>
       </c>
       <c r="F448" s="48" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G448" s="28" t="s">
         <v>263</v>
@@ -38858,7 +38867,7 @@
         <v>643</v>
       </c>
       <c r="S448" s="1">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="T448" s="1" t="s">
         <v>418</v>
@@ -38869,7 +38878,7 @@
     </row>
     <row r="449" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B449" s="48">
-        <v>51029</v>
+        <v>51027</v>
       </c>
       <c r="C449" s="48" t="s">
         <v>641</v>
@@ -38881,7 +38890,7 @@
         <v>721</v>
       </c>
       <c r="F449" s="48" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="G449" s="28" t="s">
         <v>263</v>
@@ -38920,18 +38929,18 @@
         <v>643</v>
       </c>
       <c r="S449" s="1">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="T449" s="1" t="s">
         <v>418</v>
       </c>
       <c r="U449" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B450" s="48">
-        <v>51030</v>
+        <v>51028</v>
       </c>
       <c r="C450" s="48" t="s">
         <v>641</v>
@@ -38943,7 +38952,7 @@
         <v>721</v>
       </c>
       <c r="F450" s="48" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="G450" s="28" t="s">
         <v>263</v>
@@ -38982,18 +38991,18 @@
         <v>643</v>
       </c>
       <c r="S450" s="1">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="T450" s="1" t="s">
         <v>418</v>
       </c>
       <c r="U450" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B451" s="48">
-        <v>51031</v>
+        <v>51029</v>
       </c>
       <c r="C451" s="48" t="s">
         <v>641</v>
@@ -39005,7 +39014,7 @@
         <v>721</v>
       </c>
       <c r="F451" s="48" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="G451" s="28" t="s">
         <v>263</v>
@@ -39044,7 +39053,7 @@
         <v>643</v>
       </c>
       <c r="S451" s="1">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="T451" s="1" t="s">
         <v>418</v>
@@ -39055,7 +39064,7 @@
     </row>
     <row r="452" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B452" s="48">
-        <v>51032</v>
+        <v>51030</v>
       </c>
       <c r="C452" s="48" t="s">
         <v>641</v>
@@ -39067,7 +39076,7 @@
         <v>721</v>
       </c>
       <c r="F452" s="48" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="G452" s="28" t="s">
         <v>263</v>
@@ -39106,18 +39115,18 @@
         <v>643</v>
       </c>
       <c r="S452" s="1">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="T452" s="1" t="s">
         <v>418</v>
       </c>
       <c r="U452" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B453" s="48">
-        <v>51033</v>
+        <v>51031</v>
       </c>
       <c r="C453" s="48" t="s">
         <v>641</v>
@@ -39129,7 +39138,7 @@
         <v>721</v>
       </c>
       <c r="F453" s="48" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="G453" s="28" t="s">
         <v>263</v>
@@ -39168,18 +39177,18 @@
         <v>643</v>
       </c>
       <c r="S453" s="1">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="T453" s="1" t="s">
         <v>418</v>
       </c>
       <c r="U453" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B454" s="48">
-        <v>51034</v>
+        <v>51032</v>
       </c>
       <c r="C454" s="48" t="s">
         <v>641</v>
@@ -39191,7 +39200,7 @@
         <v>721</v>
       </c>
       <c r="F454" s="48" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="G454" s="28" t="s">
         <v>263</v>
@@ -39230,7 +39239,7 @@
         <v>643</v>
       </c>
       <c r="S454" s="1">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="T454" s="1" t="s">
         <v>418</v>
@@ -39241,7 +39250,7 @@
     </row>
     <row r="455" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B455" s="48">
-        <v>51035</v>
+        <v>51033</v>
       </c>
       <c r="C455" s="48" t="s">
         <v>641</v>
@@ -39253,7 +39262,7 @@
         <v>721</v>
       </c>
       <c r="F455" s="48" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="G455" s="28" t="s">
         <v>263</v>
@@ -39292,18 +39301,18 @@
         <v>643</v>
       </c>
       <c r="S455" s="1">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="T455" s="1" t="s">
         <v>418</v>
       </c>
       <c r="U455" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="456" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B456" s="48">
-        <v>51036</v>
+        <v>51034</v>
       </c>
       <c r="C456" s="48" t="s">
         <v>641</v>
@@ -39315,7 +39324,7 @@
         <v>721</v>
       </c>
       <c r="F456" s="48" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="G456" s="28" t="s">
         <v>263</v>
@@ -39354,18 +39363,18 @@
         <v>643</v>
       </c>
       <c r="S456" s="1">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="T456" s="1" t="s">
         <v>418</v>
       </c>
       <c r="U456" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="457" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B457" s="48">
-        <v>51037</v>
+        <v>51035</v>
       </c>
       <c r="C457" s="48" t="s">
         <v>641</v>
@@ -39377,7 +39386,7 @@
         <v>721</v>
       </c>
       <c r="F457" s="48" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="G457" s="28" t="s">
         <v>263</v>
@@ -39416,7 +39425,7 @@
         <v>643</v>
       </c>
       <c r="S457" s="1">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="T457" s="1" t="s">
         <v>418</v>
@@ -39427,7 +39436,7 @@
     </row>
     <row r="458" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B458" s="48">
-        <v>51038</v>
+        <v>51036</v>
       </c>
       <c r="C458" s="48" t="s">
         <v>641</v>
@@ -39439,7 +39448,7 @@
         <v>721</v>
       </c>
       <c r="F458" s="48" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="G458" s="28" t="s">
         <v>263</v>
@@ -39478,18 +39487,18 @@
         <v>643</v>
       </c>
       <c r="S458" s="1">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="T458" s="1" t="s">
-        <v>668</v>
+        <v>418</v>
       </c>
       <c r="U458" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="459" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B459" s="48">
-        <v>51039</v>
+        <v>51037</v>
       </c>
       <c r="C459" s="48" t="s">
         <v>641</v>
@@ -39501,7 +39510,7 @@
         <v>721</v>
       </c>
       <c r="F459" s="48" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="G459" s="28" t="s">
         <v>263</v>
@@ -39540,18 +39549,18 @@
         <v>643</v>
       </c>
       <c r="S459" s="1">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="T459" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="U459" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="460" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B460" s="48">
-        <v>51040</v>
+        <v>51038</v>
       </c>
       <c r="C460" s="48" t="s">
         <v>641</v>
@@ -39563,7 +39572,7 @@
         <v>721</v>
       </c>
       <c r="F460" s="48" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="G460" s="28" t="s">
         <v>263</v>
@@ -39602,10 +39611,10 @@
         <v>643</v>
       </c>
       <c r="S460" s="1">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="T460" s="1" t="s">
-        <v>420</v>
+        <v>668</v>
       </c>
       <c r="U460" s="1">
         <v>1</v>
@@ -39613,7 +39622,7 @@
     </row>
     <row r="461" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B461" s="48">
-        <v>51041</v>
+        <v>51039</v>
       </c>
       <c r="C461" s="48" t="s">
         <v>641</v>
@@ -39625,7 +39634,7 @@
         <v>721</v>
       </c>
       <c r="F461" s="48" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="G461" s="28" t="s">
         <v>263</v>
@@ -39664,7 +39673,7 @@
         <v>643</v>
       </c>
       <c r="S461" s="1">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="T461" s="1" t="s">
         <v>420</v>
@@ -39675,7 +39684,7 @@
     </row>
     <row r="462" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B462" s="48">
-        <v>51042</v>
+        <v>51040</v>
       </c>
       <c r="C462" s="48" t="s">
         <v>641</v>
@@ -39687,7 +39696,7 @@
         <v>721</v>
       </c>
       <c r="F462" s="48" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G462" s="28" t="s">
         <v>263</v>
@@ -39726,18 +39735,18 @@
         <v>643</v>
       </c>
       <c r="S462" s="1">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="T462" s="1" t="s">
         <v>420</v>
       </c>
       <c r="U462" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B463" s="48">
-        <v>51043</v>
+        <v>51041</v>
       </c>
       <c r="C463" s="48" t="s">
         <v>641</v>
@@ -39749,7 +39758,7 @@
         <v>721</v>
       </c>
       <c r="F463" s="48" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="G463" s="28" t="s">
         <v>263</v>
@@ -39788,18 +39797,18 @@
         <v>643</v>
       </c>
       <c r="S463" s="1">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="T463" s="1" t="s">
         <v>420</v>
       </c>
       <c r="U463" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B464" s="48">
-        <v>51044</v>
+        <v>51042</v>
       </c>
       <c r="C464" s="48" t="s">
         <v>641</v>
@@ -39811,7 +39820,7 @@
         <v>721</v>
       </c>
       <c r="F464" s="48" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="G464" s="28" t="s">
         <v>263</v>
@@ -39850,7 +39859,7 @@
         <v>643</v>
       </c>
       <c r="S464" s="1">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="T464" s="1" t="s">
         <v>420</v>
@@ -39861,7 +39870,7 @@
     </row>
     <row r="465" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B465" s="48">
-        <v>51045</v>
+        <v>51043</v>
       </c>
       <c r="C465" s="48" t="s">
         <v>641</v>
@@ -39873,7 +39882,7 @@
         <v>721</v>
       </c>
       <c r="F465" s="48" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="G465" s="28" t="s">
         <v>263</v>
@@ -39912,18 +39921,18 @@
         <v>643</v>
       </c>
       <c r="S465" s="1">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="T465" s="1" t="s">
         <v>420</v>
       </c>
       <c r="U465" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B466" s="48">
-        <v>51046</v>
+        <v>51044</v>
       </c>
       <c r="C466" s="48" t="s">
         <v>641</v>
@@ -39935,7 +39944,7 @@
         <v>721</v>
       </c>
       <c r="F466" s="48" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G466" s="28" t="s">
         <v>263</v>
@@ -39974,18 +39983,18 @@
         <v>643</v>
       </c>
       <c r="S466" s="1">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="T466" s="1" t="s">
         <v>420</v>
       </c>
       <c r="U466" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B467" s="48">
-        <v>51047</v>
+        <v>51045</v>
       </c>
       <c r="C467" s="48" t="s">
         <v>641</v>
@@ -39997,7 +40006,7 @@
         <v>721</v>
       </c>
       <c r="F467" s="48" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G467" s="28" t="s">
         <v>263</v>
@@ -40036,7 +40045,7 @@
         <v>643</v>
       </c>
       <c r="S467" s="1">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="T467" s="1" t="s">
         <v>420</v>
@@ -40047,7 +40056,7 @@
     </row>
     <row r="468" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B468" s="48">
-        <v>51048</v>
+        <v>51046</v>
       </c>
       <c r="C468" s="48" t="s">
         <v>641</v>
@@ -40059,7 +40068,7 @@
         <v>721</v>
       </c>
       <c r="F468" s="48" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G468" s="28" t="s">
         <v>263</v>
@@ -40098,18 +40107,18 @@
         <v>643</v>
       </c>
       <c r="S468" s="1">
-        <v>490</v>
+        <v>470</v>
       </c>
       <c r="T468" s="1" t="s">
         <v>420</v>
       </c>
       <c r="U468" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="469" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B469" s="48">
-        <v>51049</v>
+        <v>51047</v>
       </c>
       <c r="C469" s="48" t="s">
         <v>641</v>
@@ -40121,7 +40130,7 @@
         <v>721</v>
       </c>
       <c r="F469" s="48" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="G469" s="28" t="s">
         <v>263</v>
@@ -40160,18 +40169,18 @@
         <v>643</v>
       </c>
       <c r="S469" s="1">
-        <v>500</v>
+        <v>479</v>
       </c>
       <c r="T469" s="1" t="s">
         <v>420</v>
       </c>
       <c r="U469" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="470" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B470" s="48">
-        <v>51050</v>
+        <v>51048</v>
       </c>
       <c r="C470" s="48" t="s">
         <v>641</v>
@@ -40183,7 +40192,7 @@
         <v>721</v>
       </c>
       <c r="F470" s="48" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G470" s="28" t="s">
         <v>263</v>
@@ -40222,7 +40231,7 @@
         <v>643</v>
       </c>
       <c r="S470" s="1">
-        <v>510</v>
+        <v>490</v>
       </c>
       <c r="T470" s="1" t="s">
         <v>420</v>
@@ -40233,7 +40242,7 @@
     </row>
     <row r="471" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B471" s="48">
-        <v>51051</v>
+        <v>51049</v>
       </c>
       <c r="C471" s="48" t="s">
         <v>641</v>
@@ -40245,7 +40254,7 @@
         <v>721</v>
       </c>
       <c r="F471" s="48" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G471" s="28" t="s">
         <v>263</v>
@@ -40284,18 +40293,18 @@
         <v>643</v>
       </c>
       <c r="S471" s="1">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="T471" s="1" t="s">
-        <v>669</v>
+        <v>420</v>
       </c>
       <c r="U471" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="472" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B472" s="48">
-        <v>51052</v>
+        <v>51050</v>
       </c>
       <c r="C472" s="48" t="s">
         <v>641</v>
@@ -40307,7 +40316,7 @@
         <v>721</v>
       </c>
       <c r="F472" s="48" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G472" s="28" t="s">
         <v>263</v>
@@ -40346,18 +40355,18 @@
         <v>643</v>
       </c>
       <c r="S472" s="1">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="T472" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="U472" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="473" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B473" s="48">
-        <v>51053</v>
+        <v>51051</v>
       </c>
       <c r="C473" s="48" t="s">
         <v>641</v>
@@ -40369,7 +40378,7 @@
         <v>721</v>
       </c>
       <c r="F473" s="48" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="G473" s="28" t="s">
         <v>263</v>
@@ -40408,10 +40417,10 @@
         <v>643</v>
       </c>
       <c r="S473" s="1">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="T473" s="1" t="s">
-        <v>422</v>
+        <v>669</v>
       </c>
       <c r="U473" s="1">
         <v>1</v>
@@ -40419,7 +40428,7 @@
     </row>
     <row r="474" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B474" s="48">
-        <v>51054</v>
+        <v>51052</v>
       </c>
       <c r="C474" s="48" t="s">
         <v>641</v>
@@ -40431,7 +40440,7 @@
         <v>721</v>
       </c>
       <c r="F474" s="48" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="G474" s="28" t="s">
         <v>263</v>
@@ -40470,7 +40479,7 @@
         <v>643</v>
       </c>
       <c r="S474" s="1">
-        <v>550</v>
+        <v>530</v>
       </c>
       <c r="T474" s="1" t="s">
         <v>422</v>
@@ -40481,7 +40490,7 @@
     </row>
     <row r="475" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B475" s="48">
-        <v>51055</v>
+        <v>51053</v>
       </c>
       <c r="C475" s="48" t="s">
         <v>641</v>
@@ -40493,7 +40502,7 @@
         <v>721</v>
       </c>
       <c r="F475" s="48" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="G475" s="28" t="s">
         <v>263</v>
@@ -40532,18 +40541,18 @@
         <v>643</v>
       </c>
       <c r="S475" s="1">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="T475" s="1" t="s">
         <v>422</v>
       </c>
       <c r="U475" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B476" s="48">
-        <v>51056</v>
+        <v>51054</v>
       </c>
       <c r="C476" s="48" t="s">
         <v>641</v>
@@ -40555,7 +40564,7 @@
         <v>721</v>
       </c>
       <c r="F476" s="48" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G476" s="28" t="s">
         <v>263</v>
@@ -40594,18 +40603,18 @@
         <v>643</v>
       </c>
       <c r="S476" s="1">
-        <v>570</v>
+        <v>550</v>
       </c>
       <c r="T476" s="1" t="s">
         <v>422</v>
       </c>
       <c r="U476" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B477" s="48">
-        <v>51057</v>
+        <v>51055</v>
       </c>
       <c r="C477" s="48" t="s">
         <v>641</v>
@@ -40617,7 +40626,7 @@
         <v>721</v>
       </c>
       <c r="F477" s="48" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="G477" s="28" t="s">
         <v>263</v>
@@ -40656,7 +40665,7 @@
         <v>643</v>
       </c>
       <c r="S477" s="1">
-        <v>580</v>
+        <v>560</v>
       </c>
       <c r="T477" s="1" t="s">
         <v>422</v>
@@ -40667,7 +40676,7 @@
     </row>
     <row r="478" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B478" s="48">
-        <v>51058</v>
+        <v>51056</v>
       </c>
       <c r="C478" s="48" t="s">
         <v>641</v>
@@ -40679,7 +40688,7 @@
         <v>721</v>
       </c>
       <c r="F478" s="48" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G478" s="28" t="s">
         <v>263</v>
@@ -40718,18 +40727,18 @@
         <v>643</v>
       </c>
       <c r="S478" s="1">
-        <v>590</v>
+        <v>570</v>
       </c>
       <c r="T478" s="1" t="s">
         <v>422</v>
       </c>
       <c r="U478" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B479" s="48">
-        <v>51059</v>
+        <v>51057</v>
       </c>
       <c r="C479" s="48" t="s">
         <v>641</v>
@@ -40741,7 +40750,7 @@
         <v>721</v>
       </c>
       <c r="F479" s="48" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="G479" s="28" t="s">
         <v>263</v>
@@ -40780,18 +40789,18 @@
         <v>643</v>
       </c>
       <c r="S479" s="1">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="T479" s="1" t="s">
         <v>422</v>
       </c>
       <c r="U479" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B480" s="48">
-        <v>51060</v>
+        <v>51058</v>
       </c>
       <c r="C480" s="48" t="s">
         <v>641</v>
@@ -40803,7 +40812,7 @@
         <v>721</v>
       </c>
       <c r="F480" s="48" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G480" s="28" t="s">
         <v>263</v>
@@ -40842,7 +40851,7 @@
         <v>643</v>
       </c>
       <c r="S480" s="1">
-        <v>610</v>
+        <v>590</v>
       </c>
       <c r="T480" s="1" t="s">
         <v>422</v>
@@ -40853,7 +40862,7 @@
     </row>
     <row r="481" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B481" s="48">
-        <v>51061</v>
+        <v>51059</v>
       </c>
       <c r="C481" s="48" t="s">
         <v>641</v>
@@ -40865,7 +40874,7 @@
         <v>721</v>
       </c>
       <c r="F481" s="48" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="G481" s="28" t="s">
         <v>263</v>
@@ -40904,18 +40913,18 @@
         <v>643</v>
       </c>
       <c r="S481" s="1">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="T481" s="1" t="s">
         <v>422</v>
       </c>
       <c r="U481" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="482" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B482" s="48">
-        <v>51062</v>
+        <v>51060</v>
       </c>
       <c r="C482" s="48" t="s">
         <v>641</v>
@@ -40927,7 +40936,7 @@
         <v>721</v>
       </c>
       <c r="F482" s="48" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G482" s="28" t="s">
         <v>263</v>
@@ -40966,30 +40975,30 @@
         <v>643</v>
       </c>
       <c r="S482" s="1">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="T482" s="1" t="s">
         <v>422</v>
       </c>
       <c r="U482" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="483" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B483" s="48">
-        <v>51063</v>
+        <v>51061</v>
       </c>
       <c r="C483" s="48" t="s">
         <v>641</v>
       </c>
       <c r="D483" s="48" t="s">
-        <v>726</v>
+        <v>641</v>
       </c>
       <c r="E483" s="48" t="s">
         <v>721</v>
       </c>
       <c r="F483" s="48" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="G483" s="28" t="s">
         <v>263</v>
@@ -41028,7 +41037,7 @@
         <v>643</v>
       </c>
       <c r="S483" s="1">
-        <v>640</v>
+        <v>620</v>
       </c>
       <c r="T483" s="1" t="s">
         <v>422</v>
@@ -41039,19 +41048,19 @@
     </row>
     <row r="484" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B484" s="48">
-        <v>51064</v>
+        <v>51062</v>
       </c>
       <c r="C484" s="48" t="s">
         <v>641</v>
       </c>
       <c r="D484" s="48" t="s">
-        <v>727</v>
+        <v>641</v>
       </c>
       <c r="E484" s="48" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="F484" s="48" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="G484" s="28" t="s">
         <v>263</v>
@@ -41090,12 +41099,136 @@
         <v>643</v>
       </c>
       <c r="S484" s="1">
+        <v>630</v>
+      </c>
+      <c r="T484" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="U484" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="485" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B485" s="48">
+        <v>51063</v>
+      </c>
+      <c r="C485" s="48" t="s">
+        <v>641</v>
+      </c>
+      <c r="D485" s="48" t="s">
+        <v>726</v>
+      </c>
+      <c r="E485" s="48" t="s">
+        <v>721</v>
+      </c>
+      <c r="F485" s="48" t="s">
+        <v>713</v>
+      </c>
+      <c r="G485" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="H485" s="48">
+        <v>0</v>
+      </c>
+      <c r="I485" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="J485" s="48">
+        <v>0</v>
+      </c>
+      <c r="K485" s="46" t="s">
+        <v>338</v>
+      </c>
+      <c r="L485" s="48">
+        <v>0</v>
+      </c>
+      <c r="M485" s="48">
+        <v>0</v>
+      </c>
+      <c r="N485" s="46">
+        <v>0</v>
+      </c>
+      <c r="O485" s="46">
+        <v>0</v>
+      </c>
+      <c r="P485" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q485" s="46">
+        <v>1</v>
+      </c>
+      <c r="R485" s="48" t="s">
+        <v>643</v>
+      </c>
+      <c r="S485" s="1">
+        <v>640</v>
+      </c>
+      <c r="T485" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="U485" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="486" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B486" s="48">
+        <v>51064</v>
+      </c>
+      <c r="C486" s="48" t="s">
+        <v>641</v>
+      </c>
+      <c r="D486" s="48" t="s">
+        <v>727</v>
+      </c>
+      <c r="E486" s="48" t="s">
+        <v>725</v>
+      </c>
+      <c r="F486" s="48" t="s">
+        <v>714</v>
+      </c>
+      <c r="G486" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="H486" s="48">
+        <v>0</v>
+      </c>
+      <c r="I486" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="J486" s="48">
+        <v>0</v>
+      </c>
+      <c r="K486" s="46" t="s">
+        <v>338</v>
+      </c>
+      <c r="L486" s="48">
+        <v>0</v>
+      </c>
+      <c r="M486" s="48">
+        <v>0</v>
+      </c>
+      <c r="N486" s="46">
+        <v>0</v>
+      </c>
+      <c r="O486" s="46">
+        <v>0</v>
+      </c>
+      <c r="P486" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q486" s="46">
+        <v>1</v>
+      </c>
+      <c r="R486" s="48" t="s">
+        <v>643</v>
+      </c>
+      <c r="S486" s="1">
         <v>650</v>
       </c>
-      <c r="T484" s="1" t="s">
+      <c r="T486" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="U484" s="1">
+      <c r="U486" s="1">
         <v>1</v>
       </c>
     </row>
